--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1223105.174500213</v>
+        <v>1219348.784790425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33372278.24812808</v>
+        <v>33372278.24812807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835917</v>
+        <v>5915902.834835912</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4053662.282041259</v>
+        <v>4053662.28204126</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>240.5385103542781</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806008</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287231</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2604231072194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968192</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355145</v>
+        <v>8.262714121403297</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>161.8885638628833</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H13" t="n">
-        <v>4.361599144679425</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313638</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C14" t="n">
-        <v>64.30029984730184</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>28.1205540670812</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599063</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237277</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666293</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D16" t="n">
-        <v>27.32705225159138</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628833</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11.27450617916234</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313638</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967664</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534329</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D17" t="n">
-        <v>187.7332826904764</v>
+        <v>250.8579923031023</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F17" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287231</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968192</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666293</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355145</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E19" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628833</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794992</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T19" t="n">
-        <v>7.569640972172978</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345933</v>
+        <v>4.9778809169897</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450806</v>
+        <v>221.9583872743198</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287231</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.3692292428794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968192</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>56.55018389765379</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355145</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02328844606316</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486287</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794992</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313638</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723395</v>
+        <v>279.6477765712305</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.46227372343774</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968192</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666293</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355145</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628833</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794992</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313638</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758301</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967662</v>
+        <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2617,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>341.8408592811753</v>
+        <v>332.6210397470333</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>99.37971800135303</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -3006,7 +3006,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>219.9552145948927</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>328.4187498484728</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3240,10 +3240,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.824751855628</v>
+        <v>239.8247518556276</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317441</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>54.91274684145261</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>324.6864555194512</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>98.2691785557236</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>185.0832217507329</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.0555568802976</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>167.7419299937805</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>121.3709772969266</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>31.20108168772392</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>303.6381836793405</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.34995949258592</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>278.6828718508045</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>136.0250758436196</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E46" t="n">
-        <v>19.70610221343463</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>848.2101681471829</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="C11" t="n">
-        <v>848.2101681471829</v>
+        <v>1099.220715658994</v>
       </c>
       <c r="D11" t="n">
-        <v>848.2101681471829</v>
+        <v>676.4941829899825</v>
       </c>
       <c r="E11" t="n">
-        <v>848.2101681471829</v>
+        <v>433.5259907129339</v>
       </c>
       <c r="F11" t="n">
-        <v>433.5259907129341</v>
+        <v>433.5259907129339</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
         <v>1775.96950697326</v>
@@ -5062,31 +5062,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2333.044459819078</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.456460444734</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.569021122791</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V11" t="n">
-        <v>1539.135323213161</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="W11" t="n">
-        <v>1147.463120780738</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="X11" t="n">
-        <v>1147.463120780738</v>
+        <v>1524.179936319027</v>
       </c>
       <c r="Y11" t="n">
-        <v>848.2101681471829</v>
+        <v>1524.179936319027</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5175,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.1212435417252</v>
+        <v>577.1212435417257</v>
       </c>
       <c r="C13" t="n">
-        <v>417.7427841814937</v>
+        <v>577.1212435417257</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0480435395599</v>
+        <v>568.7750676615203</v>
       </c>
       <c r="E13" t="n">
-        <v>265.0480435395599</v>
+        <v>412.2003160688012</v>
       </c>
       <c r="F13" t="n">
-        <v>101.5242416578596</v>
+        <v>248.676514187101</v>
       </c>
       <c r="G13" t="n">
-        <v>101.5242416578596</v>
+        <v>97.11858595616306</v>
       </c>
       <c r="H13" t="n">
-        <v>97.11858595616323</v>
+        <v>97.11858595616306</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>262.0450151820483</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L13" t="n">
-        <v>385.9158168003462</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>970.0968922186612</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U13" t="n">
         <v>1734.816939373752</v>
@@ -5241,10 +5241,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X13" t="n">
-        <v>969.9930286335172</v>
+        <v>969.9930286335173</v>
       </c>
       <c r="Y13" t="n">
-        <v>755.7566101041689</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1206.105358777319</v>
+        <v>1133.153067514487</v>
       </c>
       <c r="C14" t="n">
-        <v>1141.155560951762</v>
+        <v>1133.153067514487</v>
       </c>
       <c r="D14" t="n">
-        <v>718.4290282827496</v>
+        <v>1133.153067514487</v>
       </c>
       <c r="E14" t="n">
-        <v>718.4290282827496</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="F14" t="n">
-        <v>303.7448508485008</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="G14" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="V14" t="n">
-        <v>2010.893879538107</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="W14" t="n">
-        <v>1619.221677105683</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.221677105683</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.221677105683</v>
+        <v>1546.269385842852</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>755.756610104168</v>
+        <v>842.324623336439</v>
       </c>
       <c r="C16" t="n">
-        <v>596.3781507439364</v>
+        <v>682.9461639762076</v>
       </c>
       <c r="D16" t="n">
-        <v>568.7750676615209</v>
+        <v>530.2514233342739</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2003160688016</v>
+        <v>373.6766717415548</v>
       </c>
       <c r="F16" t="n">
-        <v>248.6765141871013</v>
+        <v>210.1528698598547</v>
       </c>
       <c r="G16" t="n">
-        <v>97.1185859561632</v>
+        <v>58.5949416289167</v>
       </c>
       <c r="H16" t="n">
-        <v>97.1185859561632</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092375</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5469,19 +5469,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.816939373751</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.044683400725</v>
+        <v>1726.248063195439</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.20153114356</v>
+        <v>1467.404910938274</v>
       </c>
       <c r="X16" t="n">
-        <v>969.9930286335162</v>
+        <v>1235.196408428231</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.756610104168</v>
+        <v>1020.959989898882</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1719.337266581991</v>
+        <v>1146.149176311424</v>
       </c>
       <c r="C17" t="n">
-        <v>1294.378045921958</v>
+        <v>721.189955651391</v>
       </c>
       <c r="D17" t="n">
-        <v>1104.748467446729</v>
+        <v>467.7980442341159</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.748467446729</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>690.0642900124801</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485008</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5548,19 +5548,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2114.440138125794</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>2114.440138125794</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>2114.440138125794</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X17" t="n">
-        <v>2114.440138125794</v>
+        <v>1954.368366183591</v>
       </c>
       <c r="Y17" t="n">
-        <v>1719.337266581991</v>
+        <v>1559.265494639788</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.5391134896802</v>
+        <v>830.936233256477</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1606541294486</v>
+        <v>671.5577738962455</v>
       </c>
       <c r="D19" t="n">
-        <v>486.4659134875149</v>
+        <v>518.8630332543119</v>
       </c>
       <c r="E19" t="n">
-        <v>329.8911618947956</v>
+        <v>362.2882816615928</v>
       </c>
       <c r="F19" t="n">
-        <v>166.3673600130953</v>
+        <v>198.7644797798927</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3673600130953</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2229.084291108515</v>
       </c>
       <c r="T19" t="n">
-        <v>2221.438189116421</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.234809321707</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.462553348681</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W19" t="n">
-        <v>1423.619401091516</v>
+        <v>1456.016520858312</v>
       </c>
       <c r="X19" t="n">
-        <v>1191.410898581472</v>
+        <v>1223.808018348268</v>
       </c>
       <c r="Y19" t="n">
-        <v>977.1744800521238</v>
+        <v>1009.57159981892</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.20655154895473</v>
+        <v>1730.16797499741</v>
       </c>
       <c r="C20" t="n">
-        <v>47.20655154895473</v>
+        <v>1305.208754337376</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895473</v>
+        <v>882.4822216683646</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895473</v>
+        <v>461.8907289832034</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2333.044459819077</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.456460444733</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1888.56902112279</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>1539.13532321316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>1147.463120780737</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X20" t="n">
-        <v>741.5039095165912</v>
+        <v>1954.368366183591</v>
       </c>
       <c r="Y20" t="n">
-        <v>460.322869877319</v>
+        <v>1954.368366183591</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.1212435417243</v>
+        <v>577.1212435417257</v>
       </c>
       <c r="C22" t="n">
-        <v>577.1212435417243</v>
+        <v>519.9998456653077</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4265028997905</v>
+        <v>367.305105023374</v>
       </c>
       <c r="E22" t="n">
-        <v>424.4265028997905</v>
+        <v>210.7303534306549</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512419</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>216.2793944203038</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>97.1185859561632</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,19 +5916,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579902</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.816939373751</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V22" t="n">
-        <v>1461.044683400725</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.20153114356</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335162</v>
+        <v>969.9930286335173</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.756610104168</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1533.970324062219</v>
+        <v>1185.99517039543</v>
       </c>
       <c r="C23" t="n">
-        <v>1533.970324062219</v>
+        <v>761.0359497353967</v>
       </c>
       <c r="D23" t="n">
-        <v>1533.970324062219</v>
+        <v>338.3094170663849</v>
       </c>
       <c r="E23" t="n">
-        <v>1113.378831377057</v>
+        <v>338.3094170663849</v>
       </c>
       <c r="F23" t="n">
-        <v>698.6946539428087</v>
+        <v>338.3094170663849</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788294</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928336</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I23" t="n">
-        <v>127.036865730464</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>707.5714735600117</v>
+        <v>538.4174088069529</v>
       </c>
       <c r="K23" t="n">
-        <v>943.8431239392327</v>
+        <v>774.6890591861739</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.958998803133</v>
+        <v>1067.804934050075</v>
       </c>
       <c r="M23" t="n">
-        <v>1563.10688697192</v>
+        <v>1393.952822218862</v>
       </c>
       <c r="N23" t="n">
-        <v>1894.532188948398</v>
+        <v>1725.378124195339</v>
       </c>
       <c r="O23" t="n">
-        <v>2207.48770348969</v>
+        <v>2038.333638736632</v>
       </c>
       <c r="P23" t="n">
-        <v>2474.58799466896</v>
+        <v>2305.433929915901</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680027</v>
+        <v>2506.015124926968</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964168</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.562656335508</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="T23" t="n">
-        <v>2764.562656335508</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="U23" t="n">
-        <v>2764.562656335508</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="V23" t="n">
-        <v>2415.128958425878</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="W23" t="n">
-        <v>2415.128958425878</v>
+        <v>2400.173571531743</v>
       </c>
       <c r="X23" t="n">
-        <v>2009.169747161732</v>
+        <v>1994.214360267597</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.086642390583</v>
+        <v>1599.111488723794</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967194</v>
+        <v>551.2016689967195</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333617</v>
+        <v>444.7452078333618</v>
       </c>
       <c r="D24" t="n">
         <v>349.654918979915</v>
@@ -6059,13 +6059,13 @@
         <v>172.1506659230303</v>
       </c>
       <c r="G24" t="n">
-        <v>87.7795655126871</v>
+        <v>87.77956551268707</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928336</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075948</v>
+        <v>90.05365165075943</v>
       </c>
       <c r="J24" t="n">
         <v>183.9469909972266</v>
@@ -6092,28 +6092,28 @@
         <v>1623.578025738008</v>
       </c>
       <c r="R24" t="n">
-        <v>1685.28148016392</v>
+        <v>1685.281480163921</v>
       </c>
       <c r="S24" t="n">
         <v>1640.660449563655</v>
       </c>
       <c r="T24" t="n">
-        <v>1514.568894439307</v>
+        <v>1514.568894439308</v>
       </c>
       <c r="U24" t="n">
-        <v>1338.299057263188</v>
+        <v>1338.299057263189</v>
       </c>
       <c r="V24" t="n">
         <v>1139.181539325188</v>
       </c>
       <c r="W24" t="n">
-        <v>953.8587850583817</v>
+        <v>953.858785058382</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972618</v>
+        <v>798.9913492972619</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764825</v>
+        <v>672.5055700764826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058155</v>
+        <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979237</v>
+        <v>849.2609806979227</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559901</v>
+        <v>696.5662400559891</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632708</v>
+        <v>539.9914884632699</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815705</v>
+        <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506324</v>
+        <v>224.9097583506318</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864918</v>
+        <v>105.7489498864916</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928336</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="J25" t="n">
         <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
-        <v>572.8808194848501</v>
+        <v>365.4765654382799</v>
       </c>
       <c r="L25" t="n">
-        <v>834.116383147512</v>
+        <v>907.5572488245388</v>
       </c>
       <c r="M25" t="n">
-        <v>1424.204642666954</v>
+        <v>1497.645508343981</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.703554470844</v>
+        <v>2067.403223305515</v>
       </c>
       <c r="O25" t="n">
-        <v>2089.138685044387</v>
+        <v>2604.838353879059</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192412</v>
+        <v>2705.607410056742</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.3746812874</v>
+        <v>2775.374681287398</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964168</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624945</v>
+        <v>2660.602487624944</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684896</v>
+        <v>2431.538515684894</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890182</v>
+        <v>2166.33513589018</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917156</v>
+        <v>1892.562879917155</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659991</v>
+        <v>1633.71972765999</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149947</v>
+        <v>1401.511225149946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620599</v>
+        <v>1187.274806620598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2026.648806949625</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.648806949625</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.739022124069</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6229,19 +6229,19 @@
         <v>288.7193304095858</v>
       </c>
       <c r="K26" t="n">
-        <v>1029.642816232215</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L26" t="n">
-        <v>1322.758691096116</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M26" t="n">
-        <v>1648.906579264903</v>
+        <v>1559.030341475336</v>
       </c>
       <c r="N26" t="n">
-        <v>1980.33188124138</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O26" t="n">
-        <v>2293.287395782673</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P26" t="n">
         <v>2676.372466452789</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.559554269511</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.942604203337</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W26" t="n">
-        <v>2026.648806949625</v>
+        <v>1783.72413465792</v>
       </c>
       <c r="X26" t="n">
-        <v>2026.648806949625</v>
+        <v>1783.72413465792</v>
       </c>
       <c r="Y26" t="n">
-        <v>2026.648806949625</v>
+        <v>1783.72413465792</v>
       </c>
     </row>
     <row r="27">
@@ -6372,7 +6372,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868774</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>576.9165089205267</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>1118.997192306786</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1249.601584645315</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6472,19 +6472,19 @@
         <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1764.89135875575</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
@@ -6496,10 +6496,10 @@
         <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2641.009070895186</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V29" t="n">
-        <v>2641.009070895186</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="W29" t="n">
         <v>2641.009070895186</v>
@@ -6542,16 +6542,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6621,16 +6621,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>593.6420517736962</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1183.730311293139</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
         <v>1753.488026254673</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.1920621708222</v>
+        <v>1367.699607398797</v>
       </c>
       <c r="C32" t="n">
-        <v>282.0495893542455</v>
+        <v>929.5571345822202</v>
       </c>
       <c r="D32" t="n">
-        <v>282.0495893542455</v>
+        <v>493.6473497566648</v>
       </c>
       <c r="E32" t="n">
-        <v>282.0495893542455</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F32" t="n">
-        <v>282.0495893542455</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2055.735851518534</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2796.659337341163</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2378.775674365733</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>1973.920219776766</v>
+        <v>2621.427765004741</v>
       </c>
       <c r="X32" t="n">
-        <v>1554.777756356077</v>
+        <v>2202.285301584051</v>
       </c>
       <c r="Y32" t="n">
-        <v>1146.49163265573</v>
+        <v>1793.999177883705</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
         <v>816.053756664793</v>
@@ -6837,7 +6837,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
@@ -6864,19 +6864,19 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.997192306786</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N34" t="n">
-        <v>1836.584363630118</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O34" t="n">
-        <v>2290.923156828216</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P34" t="n">
-        <v>2739.199106976242</v>
+        <v>2846.34436574137</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6900,7 +6900,7 @@
         <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.196183994516</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
         <v>1296.776513308624</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C35" t="n">
-        <v>908.8487259814518</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>800.2629536478089</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>372.3955240570166</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
@@ -6943,13 +6943,13 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
         <v>1775.969506973259</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1773.290769282936</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1773.290769282936</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>721.9066852196235</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>556.0286924211462</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>386.2706886718834</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>209.5636346336396</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>326.783117436994</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M37" t="n">
-        <v>910.9641928553087</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N37" t="n">
-        <v>1480.721907816843</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O37" t="n">
-        <v>2018.157038390386</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P37" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>2028.948289708806</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.948289708806</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.4307943255671</v>
+        <v>1080.420058888313</v>
       </c>
       <c r="C38" t="n">
-        <v>716.4307943255671</v>
+        <v>1080.420058888313</v>
       </c>
       <c r="D38" t="n">
-        <v>716.4307943255671</v>
+        <v>644.5102740627576</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>1381.083921261709</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X38" t="n">
-        <v>961.9414578410193</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y38" t="n">
-        <v>961.9414578410193</v>
+        <v>1506.719629373221</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1050.147607600722</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C40" t="n">
-        <v>877.585896083947</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="D40" t="n">
-        <v>711.7079032854697</v>
+        <v>420.1710301036942</v>
       </c>
       <c r="E40" t="n">
-        <v>541.9498995362069</v>
+        <v>420.1710301036942</v>
       </c>
       <c r="F40" t="n">
-        <v>365.2428454979631</v>
+        <v>243.4639760654504</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>78.7227956779688</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>601.5415720081295</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1185.722647426444</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.940945496479</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953201</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.567278286614</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.147607600722</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.275513477279</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1485.275513477279</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>1911.575083962187</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>566.2333208532364</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>393.6716093364613</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511379</v>
@@ -7578,16 +7578,16 @@
         <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>550.4276429928788</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2310.479133515832</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2068.231909419238</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.845277467981</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.889769338411</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.863364924703</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>985.4716102581153</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.0519395722235</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1188.845320663326</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7028478467491</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>750.7028478467491</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="V44" t="n">
-        <v>1889.485634438363</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="W44" t="n">
-        <v>1889.485634438363</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="X44" t="n">
-        <v>1470.343171017674</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="Y44" t="n">
-        <v>1470.343171017674</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>471.6552262893761</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>471.6552262893761</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.75145377609</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>59.72999935692141</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042864</v>
+        <v>263.8716243249369</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>141.4680432173443</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>427.1594268546489</v>
+        <v>256.2967351848927</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>68.03454598440948</v>
       </c>
       <c r="L25" t="n">
-        <v>138.752284893297</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>509.7493287307154</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>418.9652501553958</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>207.940421495367</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>117.1563429200478</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>380.1894240459278</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>187.2544722033711</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>256.7604858289868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
-        <v>81.1053779017102</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>339.9726382326635</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>61.66415767596345</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="Q37" t="n">
-        <v>156.7304232042866</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>156.0310027216372</v>
+        <v>181.022262991846</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>93.97993254278316</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>264.6463123855406</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583097</v>
+        <v>175.8470674040314</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.89141972114561</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>142.905079114111</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767921</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486287</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>113.6076012348198</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>356.409328606131</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583097</v>
+        <v>388.2650236912283</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806008</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287231</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968192</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.8407409839231</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794992</v>
+        <v>106.6946942003367</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313622</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>230.7659846518454</v>
+        <v>167.6412750392194</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237295</v>
+        <v>27.01028645237278</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806008</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305337</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515043</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486287</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313638</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.2036912484764</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>251.2768398176035</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>187.0267678707608</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.7826135854856</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666293</v>
+        <v>101.2344908689753</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767921</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>105.8652754168201</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>102.8084682011088</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806008</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287231</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.6895691049273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>58.9660407619017</v>
+        <v>68.18586029604376</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>157.1002665623482</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>301.427182041724</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>175.5524498124249</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>72.38815019460418</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>340.594917565865</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>90.26458326703124</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>64.82459002788316</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>90.51954388101149</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>178.9810178997611</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>261.6950673995073</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.72279128668016</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>99.81953832675333</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>127.9125032979594</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806297</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>13.11437420552782</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>93.6323136182219</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>143.3537029292542</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>73.62846317195925</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E46" t="n">
-        <v>148.3543214983355</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>301588.7093781894</v>
+        <v>301588.7093781896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>301588.7093781894</v>
+        <v>301588.7093781896</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>301588.7093781893</v>
+        <v>301588.7093781896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>301588.7093781894</v>
+        <v>301588.7093781896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360582.6752014171</v>
+        <v>360582.675201417</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>285232.1482348494</v>
+        <v>285232.1482348495</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>471046.1696008124</v>
+      </c>
+      <c r="C2" t="n">
         <v>471046.1696008125</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>471046.1696008124</v>
       </c>
-      <c r="D2" t="n">
-        <v>471046.1696008125</v>
-      </c>
       <c r="E2" t="n">
-        <v>300454.3401403015</v>
+        <v>300454.3401403017</v>
       </c>
       <c r="F2" t="n">
-        <v>300454.3401403014</v>
+        <v>300454.3401403019</v>
       </c>
       <c r="G2" t="n">
-        <v>300454.3401403014</v>
+        <v>300454.3401403018</v>
       </c>
       <c r="H2" t="n">
-        <v>300454.3401403016</v>
+        <v>300454.3401403017</v>
       </c>
       <c r="I2" t="n">
-        <v>339490.1010355265</v>
+        <v>339490.1010355267</v>
       </c>
       <c r="J2" t="n">
-        <v>340425.1047381765</v>
+        <v>340425.1047381763</v>
       </c>
       <c r="K2" t="n">
         <v>340425.1047381765</v>
       </c>
       <c r="L2" t="n">
-        <v>340425.1047381766</v>
+        <v>340425.1047381765</v>
       </c>
       <c r="M2" t="n">
+        <v>283135.6283414713</v>
+      </c>
+      <c r="N2" t="n">
         <v>283135.6283414712</v>
-      </c>
-      <c r="N2" t="n">
-        <v>283135.6283414711</v>
       </c>
       <c r="O2" t="n">
         <v>283135.6283414713</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396147</v>
+        <v>28687.43758396132</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385206</v>
+        <v>13198.92408385218</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.378864797</v>
+        <v>107595.3788647969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>29277.324716761</v>
+        <v>29277.32471676112</v>
       </c>
       <c r="F4" t="n">
-        <v>29277.32471676099</v>
+        <v>29277.32471676112</v>
       </c>
       <c r="G4" t="n">
-        <v>29277.32471676099</v>
+        <v>29277.32471676112</v>
       </c>
       <c r="H4" t="n">
-        <v>29277.324716761</v>
+        <v>29277.32471676113</v>
       </c>
       <c r="I4" t="n">
-        <v>51470.56360276503</v>
+        <v>51470.56360276504</v>
       </c>
       <c r="J4" t="n">
-        <v>50865.18133183767</v>
+        <v>50865.18133183764</v>
       </c>
       <c r="K4" t="n">
         <v>50865.18133183767</v>
       </c>
       <c r="L4" t="n">
-        <v>50865.18133183765</v>
+        <v>50865.18133183767</v>
       </c>
       <c r="M4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="N4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="N4" t="n">
-        <v>18294.04639895362</v>
-      </c>
       <c r="O4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="P4" t="n">
         <v>18294.04639895362</v>
@@ -26481,16 +26481,16 @@
         <v>47148.3010069308</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398054</v>
+        <v>53707.37759398052</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.9465714779</v>
       </c>
       <c r="E6" t="n">
-        <v>-337547.6222820486</v>
+        <v>-338053.3951924959</v>
       </c>
       <c r="F6" t="n">
-        <v>224028.7144166097</v>
+        <v>223522.9415061625</v>
       </c>
       <c r="G6" t="n">
-        <v>224028.7144166097</v>
+        <v>223522.9415061624</v>
       </c>
       <c r="H6" t="n">
-        <v>224028.7144166098</v>
+        <v>223522.9415061623</v>
       </c>
       <c r="I6" t="n">
-        <v>205624.7222548195</v>
+        <v>205227.3820135258</v>
       </c>
       <c r="J6" t="n">
-        <v>220683.717554685</v>
+        <v>220288.9745458981</v>
       </c>
       <c r="K6" t="n">
-        <v>233882.641638537</v>
+        <v>233487.8986297504</v>
       </c>
       <c r="L6" t="n">
-        <v>233882.6416385371</v>
+        <v>233487.8986297504</v>
       </c>
       <c r="M6" t="n">
-        <v>111195.1218680828</v>
+        <v>110641.2414248609</v>
       </c>
       <c r="N6" t="n">
-        <v>218790.5007328797</v>
+        <v>218236.6202896578</v>
       </c>
       <c r="O6" t="n">
-        <v>218790.5007328799</v>
+        <v>218236.6202896579</v>
       </c>
       <c r="P6" t="n">
-        <v>218790.5007328799</v>
+        <v>218236.6202896579</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910419</v>
+        <v>697.9614434910415</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26825,13 +26825,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291078</v>
+        <v>107.8795491291072</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595733</v>
+        <v>50.44611794595778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868693</v>
+        <v>431.7562272868691</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="26">
@@ -31855,7 +31855,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31992,13 +31992,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -32007,10 +32007,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917233</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33022,7 +33022,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33508,7 +33508,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34462,7 +34462,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917233</v>
@@ -35415,10 +35415,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5078787180913</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
-        <v>281.852445040951</v>
+        <v>388.9936461616015</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409512</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>266.5900650540088</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>586.3985937672199</v>
+        <v>415.5359020974637</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>165.8124253455794</v>
       </c>
       <c r="L25" t="n">
-        <v>263.8743067299615</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
         <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36597,22 +36597,22 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>748.4075614369992</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>542.7134537948391</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>386.9546168385014</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>508.9762036458162</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36773,7 +36773,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36840,22 +36840,22 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>516.6967834849743</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,13 +36922,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>381.8825076656514</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37068,31 +37068,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
-        <v>198.9605135422562</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37232,22 +37232,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
         <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>458.9280739374733</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>132.1361488180401</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>147.5459694702538</v>
       </c>
       <c r="Q37" t="n">
-        <v>227.2024143463632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,16 +37703,16 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>284.8177823215256</v>
+        <v>309.8090425917344</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37940,13 +37940,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>225.9035611675604</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N43" t="n">
         <v>575.5128433954891</v>
@@ -37958,7 +37958,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>396.5699410103177</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
